--- a/predictions/Прогнозы_GP_Mater_Per.xlsx
+++ b/predictions/Прогнозы_GP_Mater_Per.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13962039.61394699</v>
+        <v>13934751.87675111</v>
       </c>
       <c r="C2" t="n">
-        <v>13939394.44128394</v>
+        <v>13934759.52830767</v>
       </c>
       <c r="D2" t="n">
-        <v>13915236.96455729</v>
+        <v>13934741.00689775</v>
       </c>
       <c r="E2" t="n">
-        <v>13889795.11289699</v>
+        <v>13934761.19754233</v>
       </c>
       <c r="F2" t="n">
-        <v>13863308.90946223</v>
+        <v>13934749.37106332</v>
       </c>
       <c r="G2" t="n">
-        <v>13836028.20837471</v>
+        <v>13934746.96707332</v>
       </c>
       <c r="H2" t="n">
-        <v>13808210.33977926</v>
+        <v>13934762.41968995</v>
       </c>
       <c r="I2" t="n">
-        <v>13780117.68515108</v>
+        <v>13934741.610423</v>
       </c>
       <c r="J2" t="n">
-        <v>13752015.20559625</v>
+        <v>13934757.45839766</v>
       </c>
       <c r="K2" t="n">
-        <v>13724167.9463119</v>
+        <v>13934754.45264375</v>
       </c>
       <c r="L2" t="n">
-        <v>13696838.54057705</v>
+        <v>13934743.11499732</v>
       </c>
       <c r="M2" t="n">
-        <v>13670284.73663853</v>
+        <v>13934763.13243719</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2703702.042389907</v>
+        <v>9578004.37624676</v>
       </c>
       <c r="C3" t="n">
-        <v>2703702.060638942</v>
+        <v>8764391.172300715</v>
       </c>
       <c r="D3" t="n">
-        <v>2703702.078874342</v>
+        <v>7909921.036862116</v>
       </c>
       <c r="E3" t="n">
-        <v>2703702.09709616</v>
+        <v>7061811.838877193</v>
       </c>
       <c r="F3" t="n">
-        <v>2703702.115304381</v>
+        <v>6253322.692175575</v>
       </c>
       <c r="G3" t="n">
-        <v>2703702.133499011</v>
+        <v>5505708.080312883</v>
       </c>
       <c r="H3" t="n">
-        <v>2703702.151680008</v>
+        <v>4830668.951023049</v>
       </c>
       <c r="I3" t="n">
-        <v>2703702.169847414</v>
+        <v>4232756.791611879</v>
       </c>
       <c r="J3" t="n">
-        <v>2703702.18800123</v>
+        <v>3711477.313619246</v>
       </c>
       <c r="K3" t="n">
-        <v>2703702.206141442</v>
+        <v>3263005.514271963</v>
       </c>
       <c r="L3" t="n">
-        <v>2703702.224268049</v>
+        <v>2881512.142263471</v>
       </c>
       <c r="M3" t="n">
-        <v>2703702.242381081</v>
+        <v>2560143.979801193</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4379059.136457413</v>
+        <v>6685659.396766484</v>
       </c>
       <c r="C4" t="n">
-        <v>4435111.324150622</v>
+        <v>6729379.540343463</v>
       </c>
       <c r="D4" t="n">
-        <v>4490971.82196641</v>
+        <v>6772986.85623157</v>
       </c>
       <c r="E4" t="n">
-        <v>4546634.548599496</v>
+        <v>6816478.605058163</v>
       </c>
       <c r="F4" t="n">
-        <v>4602093.562069207</v>
+        <v>6859852.09325695</v>
       </c>
       <c r="G4" t="n">
-        <v>4657343.057733759</v>
+        <v>6903104.672591299</v>
       </c>
       <c r="H4" t="n">
-        <v>4712377.366328403</v>
+        <v>6946233.739681244</v>
       </c>
       <c r="I4" t="n">
-        <v>4767190.952026054</v>
+        <v>6989236.735535264</v>
       </c>
       <c r="J4" t="n">
-        <v>4821778.410521865</v>
+        <v>7032111.145085156</v>
       </c>
       <c r="K4" t="n">
-        <v>4876134.467139482</v>
+        <v>7074854.496725738</v>
       </c>
       <c r="L4" t="n">
-        <v>4930253.97496067</v>
+        <v>7117464.361858308</v>
       </c>
       <c r="M4" t="n">
-        <v>4984131.91297631</v>
+        <v>7159938.354437798</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1838362.362976611</v>
+        <v>13451023.55755617</v>
       </c>
       <c r="C5" t="n">
-        <v>1852442.585110858</v>
+        <v>13451023.55755617</v>
       </c>
       <c r="D5" t="n">
-        <v>1866480.840934001</v>
+        <v>13451023.55755617</v>
       </c>
       <c r="E5" t="n">
-        <v>1880476.0140182</v>
+        <v>13451023.55755617</v>
       </c>
       <c r="F5" t="n">
-        <v>1894427.009254083</v>
+        <v>13451023.55755617</v>
       </c>
       <c r="G5" t="n">
-        <v>1908332.752598241</v>
+        <v>13451023.55755617</v>
       </c>
       <c r="H5" t="n">
-        <v>1922192.190823205</v>
+        <v>13451023.55755617</v>
       </c>
       <c r="I5" t="n">
-        <v>1936004.291269764</v>
+        <v>13451023.55755617</v>
       </c>
       <c r="J5" t="n">
-        <v>1949768.041601926</v>
+        <v>13451023.55755617</v>
       </c>
       <c r="K5" t="n">
-        <v>1963482.44956404</v>
+        <v>13451023.55755617</v>
       </c>
       <c r="L5" t="n">
-        <v>1977146.542740457</v>
+        <v>13451023.55755617</v>
       </c>
       <c r="M5" t="n">
-        <v>1990759.368317619</v>
+        <v>13451023.55755617</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5354922.579355437</v>
+        <v>3157495.01464674</v>
       </c>
       <c r="C6" t="n">
-        <v>5354922.58005226</v>
+        <v>3157651.714556309</v>
       </c>
       <c r="D6" t="n">
-        <v>5354922.580740409</v>
+        <v>3157842.509015318</v>
       </c>
       <c r="E6" t="n">
-        <v>5354922.581419887</v>
+        <v>3158062.605432387</v>
       </c>
       <c r="F6" t="n">
-        <v>5354922.582090674</v>
+        <v>3158306.475438381</v>
       </c>
       <c r="G6" t="n">
-        <v>5354922.582752757</v>
+        <v>3158567.993646941</v>
       </c>
       <c r="H6" t="n">
-        <v>5354922.583406135</v>
+        <v>3158840.591010712</v>
       </c>
       <c r="I6" t="n">
-        <v>5354922.584050782</v>
+        <v>3159117.420428271</v>
       </c>
       <c r="J6" t="n">
-        <v>5354922.584686688</v>
+        <v>3159391.528515013</v>
       </c>
       <c r="K6" t="n">
-        <v>5354922.585313844</v>
+        <v>3159656.030000476</v>
       </c>
       <c r="L6" t="n">
-        <v>5354922.585932245</v>
+        <v>3159904.281008462</v>
       </c>
       <c r="M6" t="n">
-        <v>5354922.586541869</v>
+        <v>3160130.045598129</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1831675.814849279</v>
+        <v>2888218.834653083</v>
       </c>
       <c r="C7" t="n">
-        <v>1831677.479815498</v>
+        <v>2888218.854170076</v>
       </c>
       <c r="D7" t="n">
-        <v>1831656.71247108</v>
+        <v>2888218.846373441</v>
       </c>
       <c r="E7" t="n">
-        <v>1831613.589578232</v>
+        <v>2888218.840777951</v>
       </c>
       <c r="F7" t="n">
-        <v>1831548.268580424</v>
+        <v>2888218.841218985</v>
       </c>
       <c r="G7" t="n">
-        <v>1831460.987006226</v>
+        <v>2888218.831336024</v>
       </c>
       <c r="H7" t="n">
-        <v>1831352.0615836</v>
+        <v>2888218.843905776</v>
       </c>
       <c r="I7" t="n">
-        <v>1831221.887068245</v>
+        <v>2888218.84841061</v>
       </c>
       <c r="J7" t="n">
-        <v>1831070.934790651</v>
+        <v>2888218.850034933</v>
       </c>
       <c r="K7" t="n">
-        <v>1830899.750927537</v>
+        <v>2888218.841333098</v>
       </c>
       <c r="L7" t="n">
-        <v>1830708.954504318</v>
+        <v>2888218.834977874</v>
       </c>
       <c r="M7" t="n">
-        <v>1830499.23513623</v>
+        <v>2888218.811339053</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>909067.580637188</v>
+        <v>16360494.15706615</v>
       </c>
       <c r="C8" t="n">
-        <v>909067.580637188</v>
+        <v>16274593.07627048</v>
       </c>
       <c r="D8" t="n">
-        <v>909067.580637188</v>
+        <v>16183434.58922735</v>
       </c>
       <c r="E8" t="n">
-        <v>909067.580637188</v>
+        <v>16087108.88079746</v>
       </c>
       <c r="F8" t="n">
-        <v>909067.580637188</v>
+        <v>15985711.07000383</v>
       </c>
       <c r="G8" t="n">
-        <v>909067.580637188</v>
+        <v>15879341.05660669</v>
       </c>
       <c r="H8" t="n">
-        <v>909067.580637188</v>
+        <v>15768103.35755847</v>
       </c>
       <c r="I8" t="n">
-        <v>909067.580637188</v>
+        <v>15652106.94041454</v>
       </c>
       <c r="J8" t="n">
-        <v>909067.580637188</v>
+        <v>15531465.0476695</v>
       </c>
       <c r="K8" t="n">
-        <v>909067.580637188</v>
+        <v>15406295.01256264</v>
       </c>
       <c r="L8" t="n">
-        <v>909067.580637188</v>
+        <v>15276718.07368337</v>
       </c>
       <c r="M8" t="n">
-        <v>909067.580637188</v>
+        <v>15142859.18084292</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>16256925.47699623</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>16376175.02416078</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>16223935.18749474</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>16384875.00148664</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>16241841.58901791</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>16350889.20464642</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>16297025.12555552</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>16289405.24237276</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>16354931.7460036</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>16236069.14728398</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>16385533.26739782</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>16225864.04158448</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5643372.495964374</v>
+        <v>12778845.26995397</v>
       </c>
       <c r="C10" t="n">
-        <v>3476405.16200508</v>
+        <v>10789977.97444679</v>
       </c>
       <c r="D10" t="n">
-        <v>3364923.583168953</v>
+        <v>8874043.636180814</v>
       </c>
       <c r="E10" t="n">
-        <v>3360996.028869608</v>
+        <v>7137885.775506403</v>
       </c>
       <c r="F10" t="n">
-        <v>3360836.37809147</v>
+        <v>5634489.906257704</v>
       </c>
       <c r="G10" t="n">
-        <v>3360790.980707695</v>
+        <v>4377192.037601231</v>
       </c>
       <c r="H10" t="n">
-        <v>3360757.771133965</v>
+        <v>3354162.849136648</v>
       </c>
       <c r="I10" t="n">
-        <v>3360737.492339407</v>
+        <v>2539971.656185887</v>
       </c>
       <c r="J10" t="n">
-        <v>3360732.232748075</v>
+        <v>1903677.35399861</v>
       </c>
       <c r="K10" t="n">
-        <v>3360742.549928873</v>
+        <v>1413924.778304937</v>
       </c>
       <c r="L10" t="n">
-        <v>3360767.34675397</v>
+        <v>1041802.197757926</v>
       </c>
       <c r="M10" t="n">
-        <v>3360803.986610834</v>
+        <v>762175.1814227585</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>4890514.217947021</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4891703.293517083</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>4892891.061159208</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>4894077.518274345</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>4895262.662272565</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>4896446.490573019</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>4897629.000603758</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>4898810.189801902</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>4899990.05561357</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>4901168.595493734</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>4902345.806906477</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>4903521.687324807</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1655879.190262642</v>
+        <v>32518225.39982092</v>
       </c>
       <c r="C12" t="n">
-        <v>1655856.731865587</v>
+        <v>31879881.19481673</v>
       </c>
       <c r="D12" t="n">
-        <v>1655812.633489104</v>
+        <v>31771160.17779488</v>
       </c>
       <c r="E12" t="n">
-        <v>1655796.292117831</v>
+        <v>31758541.8216814</v>
       </c>
       <c r="F12" t="n">
-        <v>1655787.221280313</v>
+        <v>31757320.8812296</v>
       </c>
       <c r="G12" t="n">
-        <v>1655750.030660357</v>
+        <v>31757214.6834628</v>
       </c>
       <c r="H12" t="n">
-        <v>1655730.451051731</v>
+        <v>31757206.07135748</v>
       </c>
       <c r="I12" t="n">
-        <v>1655711.437272154</v>
+        <v>31757205.40676867</v>
       </c>
       <c r="J12" t="n">
-        <v>1655697.059511523</v>
+        <v>31757205.35735691</v>
       </c>
       <c r="K12" t="n">
-        <v>1655666.604188616</v>
+        <v>31757205.3537979</v>
       </c>
       <c r="L12" t="n">
-        <v>1655638.016348236</v>
+        <v>31757205.35355686</v>
       </c>
       <c r="M12" t="n">
-        <v>1655620.534751968</v>
+        <v>31757205.35354882</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>426490.0686140099</v>
+        <v>34456975.78669558</v>
       </c>
       <c r="C13" t="n">
-        <v>426490.2491132424</v>
+        <v>34456975.7514162</v>
       </c>
       <c r="D13" t="n">
-        <v>426490.4281705432</v>
+        <v>34456975.71173528</v>
       </c>
       <c r="E13" t="n">
-        <v>426490.6057859079</v>
+        <v>34456975.66765296</v>
       </c>
       <c r="F13" t="n">
-        <v>426490.7819593307</v>
+        <v>34456975.61916941</v>
       </c>
       <c r="G13" t="n">
-        <v>426490.9566908062</v>
+        <v>34456975.56628481</v>
       </c>
       <c r="H13" t="n">
-        <v>426491.1299803292</v>
+        <v>34456975.50899933</v>
       </c>
       <c r="I13" t="n">
-        <v>426491.3018278949</v>
+        <v>34456975.44731321</v>
       </c>
       <c r="J13" t="n">
-        <v>426491.4722334971</v>
+        <v>34456975.38122665</v>
       </c>
       <c r="K13" t="n">
-        <v>426491.6411971316</v>
+        <v>34456975.31073993</v>
       </c>
       <c r="L13" t="n">
-        <v>426491.8087187929</v>
+        <v>34456975.23585326</v>
       </c>
       <c r="M13" t="n">
-        <v>426491.9747984755</v>
+        <v>34456975.15656697</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>769729.5489209143</v>
+        <v>152094.3404119223</v>
       </c>
       <c r="C14" t="n">
-        <v>770619.4513715407</v>
+        <v>122913.5764356163</v>
       </c>
       <c r="D14" t="n">
-        <v>770962.3226166414</v>
+        <v>134602.274102802</v>
       </c>
       <c r="E14" t="n">
-        <v>770516.2006259123</v>
+        <v>140810.5973963296</v>
       </c>
       <c r="F14" t="n">
-        <v>769595.9223893282</v>
+        <v>142746.4464063589</v>
       </c>
       <c r="G14" t="n">
-        <v>768850.7551019239</v>
+        <v>143242.69514518</v>
       </c>
       <c r="H14" t="n">
-        <v>768806.264021381</v>
+        <v>143357.0460851024</v>
       </c>
       <c r="I14" t="n">
-        <v>769493.8358561839</v>
+        <v>143381.6614030945</v>
       </c>
       <c r="J14" t="n">
-        <v>770428.5371303048</v>
+        <v>143386.7137121054</v>
       </c>
       <c r="K14" t="n">
-        <v>770950.9262507053</v>
+        <v>143387.7147249494</v>
       </c>
       <c r="L14" t="n">
-        <v>770692.3619861763</v>
+        <v>143387.9077166043</v>
       </c>
       <c r="M14" t="n">
-        <v>769835.3300639346</v>
+        <v>143387.944124121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>2638034.751169935</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1960475.275677938</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1778006.937067327</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1739015.903295776</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1731702.24563501</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1730439.775984587</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1730234.019308408</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1730201.866560903</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1730197.00109489</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1730196.283389796</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1730196.179816552</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1730196.165265982</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>295787.6818271801</v>
+        <v>5340349.698239958</v>
       </c>
       <c r="C16" t="n">
-        <v>295946.1518186675</v>
+        <v>5340349.698239955</v>
       </c>
       <c r="D16" t="n">
-        <v>296104.4706243668</v>
+        <v>5340349.698239959</v>
       </c>
       <c r="E16" t="n">
-        <v>296262.6376183024</v>
+        <v>5340349.698239959</v>
       </c>
       <c r="F16" t="n">
-        <v>296420.6521771159</v>
+        <v>5340349.698239963</v>
       </c>
       <c r="G16" t="n">
-        <v>296578.5136800213</v>
+        <v>5340349.698239962</v>
       </c>
       <c r="H16" t="n">
-        <v>296736.2215088457</v>
+        <v>5340349.698239962</v>
       </c>
       <c r="I16" t="n">
-        <v>296893.7750479821</v>
+        <v>5340349.698239965</v>
       </c>
       <c r="J16" t="n">
-        <v>297051.1736844182</v>
+        <v>5340349.698239962</v>
       </c>
       <c r="K16" t="n">
-        <v>297208.4168076972</v>
+        <v>5340349.698239969</v>
       </c>
       <c r="L16" t="n">
-        <v>297365.5038099345</v>
+        <v>5340349.698239967</v>
       </c>
       <c r="M16" t="n">
-        <v>297522.4340858031</v>
+        <v>5340349.698239967</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4693590.435991639</v>
+        <v>2544266.237985134</v>
       </c>
       <c r="C17" t="n">
-        <v>4616011.779161995</v>
+        <v>2544267.033085972</v>
       </c>
       <c r="D17" t="n">
-        <v>4515108.914547686</v>
+        <v>2544267.826664999</v>
       </c>
       <c r="E17" t="n">
-        <v>4394201.426703015</v>
+        <v>2544268.620755628</v>
       </c>
       <c r="F17" t="n">
-        <v>4257390.842750374</v>
+        <v>2544269.415783212</v>
       </c>
       <c r="G17" t="n">
-        <v>4107758.683386789</v>
+        <v>2544270.210527763</v>
       </c>
       <c r="H17" t="n">
-        <v>3948695.909004288</v>
+        <v>2544271.004038617</v>
       </c>
       <c r="I17" t="n">
-        <v>3783274.547497444</v>
+        <v>2544271.798224717</v>
       </c>
       <c r="J17" t="n">
-        <v>3613736.672672478</v>
+        <v>2544272.593334213</v>
       </c>
       <c r="K17" t="n">
-        <v>3442843.463613574</v>
+        <v>2544273.386175409</v>
       </c>
       <c r="L17" t="n">
-        <v>3272200.417640572</v>
+        <v>2544274.178518012</v>
       </c>
       <c r="M17" t="n">
-        <v>3103601.419754752</v>
+        <v>2544274.971676826</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>2696109.200951902</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>2696109.14434384</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>2696109.087035023</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>2696109.029498204</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2696108.97220802</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>2696108.915637074</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2696108.860252036</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2696108.806509789</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2696108.754853666</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>2696108.705709795</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>2696108.659483574</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>2696108.616556339</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>4858224.080059752</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>4919471.955791618</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>4943673.771876859</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>4910329.726898616</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>4848242.352261821</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>4810686.352788636</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>4830432.307443882</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>4890598.623174925</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>4938730.83835252</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>4933343.598812873</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>4879445.405873233</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>4823255.253483107</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2141005.690223716</v>
+        <v>1944309.324390083</v>
       </c>
       <c r="C20" t="n">
-        <v>2141064.740310656</v>
+        <v>2459381.956633586</v>
       </c>
       <c r="D20" t="n">
-        <v>2141092.889948925</v>
+        <v>2552978.84209919</v>
       </c>
       <c r="E20" t="n">
-        <v>2141071.150945717</v>
+        <v>2565214.883755299</v>
       </c>
       <c r="F20" t="n">
-        <v>2141014.173104936</v>
+        <v>2566549.074068894</v>
       </c>
       <c r="G20" t="n">
-        <v>2140960.402514888</v>
+        <v>2566657.793878079</v>
       </c>
       <c r="H20" t="n">
-        <v>2140946.125376392</v>
+        <v>2566642.657556626</v>
       </c>
       <c r="I20" t="n">
-        <v>2140980.968631528</v>
+        <v>2566616.276975495</v>
       </c>
       <c r="J20" t="n">
-        <v>2141041.413069947</v>
+        <v>2566589.468074636</v>
       </c>
       <c r="K20" t="n">
-        <v>2141086.694511513</v>
+        <v>2566563.309915227</v>
       </c>
       <c r="L20" t="n">
-        <v>2141086.264948391</v>
+        <v>2566537.994388012</v>
       </c>
       <c r="M20" t="n">
-        <v>2141040.407973182</v>
+        <v>2566513.632594485</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>919192.7977974801</v>
+        <v>2721925.245016902</v>
       </c>
       <c r="C21" t="n">
-        <v>931885.3742396678</v>
+        <v>2778880.152123762</v>
       </c>
       <c r="D21" t="n">
-        <v>991581.5504989626</v>
+        <v>2780954.26742239</v>
       </c>
       <c r="E21" t="n">
-        <v>1047308.765194085</v>
+        <v>2781002.154748262</v>
       </c>
       <c r="F21" t="n">
-        <v>1071386.967812027</v>
+        <v>2781002.226636979</v>
       </c>
       <c r="G21" t="n">
-        <v>1054068.280988041</v>
+        <v>2781001.197836808</v>
       </c>
       <c r="H21" t="n">
-        <v>1008993.679950403</v>
+        <v>2780999.97273603</v>
       </c>
       <c r="I21" t="n">
-        <v>961318.1406947663</v>
+        <v>2780998.571522894</v>
       </c>
       <c r="J21" t="n">
-        <v>928712.9505269512</v>
+        <v>2780996.999844173</v>
       </c>
       <c r="K21" t="n">
-        <v>910955.3810011438</v>
+        <v>2780995.26376071</v>
       </c>
       <c r="L21" t="n">
-        <v>897671.1633493137</v>
+        <v>2780993.36996326</v>
       </c>
       <c r="M21" t="n">
-        <v>886552.4240407383</v>
+        <v>2780991.325750321</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>672474.6269023928</v>
+        <v>8065218.07507444</v>
       </c>
       <c r="C22" t="n">
-        <v>671644.4793924061</v>
+        <v>8065218.07507444</v>
       </c>
       <c r="D22" t="n">
-        <v>670620.2589159724</v>
+        <v>8065218.07507444</v>
       </c>
       <c r="E22" t="n">
-        <v>669408.8547134742</v>
+        <v>8065218.07507444</v>
       </c>
       <c r="F22" t="n">
-        <v>668016.9911954515</v>
+        <v>8065218.07507444</v>
       </c>
       <c r="G22" t="n">
-        <v>666451.2309015091</v>
+        <v>8065218.07507444</v>
       </c>
       <c r="H22" t="n">
-        <v>664717.9774295399</v>
+        <v>8065218.07507444</v>
       </c>
       <c r="I22" t="n">
-        <v>662823.4783346886</v>
+        <v>8065218.07507444</v>
       </c>
       <c r="J22" t="n">
-        <v>660773.827997548</v>
+        <v>8065218.07507444</v>
       </c>
       <c r="K22" t="n">
-        <v>658574.9704611022</v>
+        <v>8065218.07507444</v>
       </c>
       <c r="L22" t="n">
-        <v>656232.7022359711</v>
+        <v>8065218.07507444</v>
       </c>
       <c r="M22" t="n">
-        <v>653752.6750735901</v>
+        <v>8065218.07507444</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>6631653.006304553</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>6631653.00629088</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>6631653.006276717</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>6631653.006262063</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>6631653.006246917</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>6631653.006231275</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>6631653.006215142</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>6631653.006198519</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>6631653.006181404</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>6631653.006163794</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>6631653.006145693</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>6631653.006127098</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8334897.97345072</v>
+        <v>6282037.869133109</v>
       </c>
       <c r="C24" t="n">
-        <v>8334898.712794013</v>
+        <v>6282037.869133113</v>
       </c>
       <c r="D24" t="n">
-        <v>8334899.34793932</v>
+        <v>6282037.869133114</v>
       </c>
       <c r="E24" t="n">
-        <v>8334899.877202241</v>
+        <v>6282037.869133117</v>
       </c>
       <c r="F24" t="n">
-        <v>8334900.299179181</v>
+        <v>6282037.869133119</v>
       </c>
       <c r="G24" t="n">
-        <v>8334900.612751078</v>
+        <v>6282037.869133121</v>
       </c>
       <c r="H24" t="n">
-        <v>8334900.817086341</v>
+        <v>6282037.869133123</v>
       </c>
       <c r="I24" t="n">
-        <v>8334900.911643097</v>
+        <v>6282037.869133127</v>
       </c>
       <c r="J24" t="n">
-        <v>8334900.896170592</v>
+        <v>6282037.869133127</v>
       </c>
       <c r="K24" t="n">
-        <v>8334900.770709878</v>
+        <v>6282037.869133134</v>
       </c>
       <c r="L24" t="n">
-        <v>8334900.535593692</v>
+        <v>6282037.869133135</v>
       </c>
       <c r="M24" t="n">
-        <v>8334900.191445583</v>
+        <v>6282037.869133136</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2401937.849937169</v>
+        <v>4664390.466827501</v>
       </c>
       <c r="C25" t="n">
-        <v>2665883.924980626</v>
+        <v>4664390.446400912</v>
       </c>
       <c r="D25" t="n">
-        <v>2898182.140097695</v>
+        <v>4664390.423986066</v>
       </c>
       <c r="E25" t="n">
-        <v>2640430.28659228</v>
+        <v>4664390.399582964</v>
       </c>
       <c r="F25" t="n">
-        <v>2370169.177921137</v>
+        <v>4664390.373191606</v>
       </c>
       <c r="G25" t="n">
-        <v>2329524.595017157</v>
+        <v>4664390.344811994</v>
       </c>
       <c r="H25" t="n">
-        <v>2739914.24721638</v>
+        <v>4664390.314444124</v>
       </c>
       <c r="I25" t="n">
-        <v>2873010.848077983</v>
+        <v>4664390.282087999</v>
       </c>
       <c r="J25" t="n">
-        <v>2588190.054153738</v>
+        <v>4664390.247743618</v>
       </c>
       <c r="K25" t="n">
-        <v>2332137.884436626</v>
+        <v>4664390.211410983</v>
       </c>
       <c r="L25" t="n">
-        <v>2379328.149192376</v>
+        <v>4664390.173090092</v>
       </c>
       <c r="M25" t="n">
-        <v>2809935.897119649</v>
+        <v>4664390.132780947</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10016980.82415774</v>
+        <v>8436979.703402616</v>
       </c>
       <c r="C26" t="n">
-        <v>10148369.07859355</v>
+        <v>8495623.77557911</v>
       </c>
       <c r="D26" t="n">
-        <v>10279359.50146718</v>
+        <v>8444650.349718872</v>
       </c>
       <c r="E26" t="n">
-        <v>10409708.72271174</v>
+        <v>8299669.296859127</v>
       </c>
       <c r="F26" t="n">
-        <v>10539048.83754307</v>
+        <v>8133534.884616341</v>
       </c>
       <c r="G26" t="n">
-        <v>10667556.00718084</v>
+        <v>8037601.879524408</v>
       </c>
       <c r="H26" t="n">
-        <v>10795583.33383319</v>
+        <v>8058307.564184038</v>
       </c>
       <c r="I26" t="n">
-        <v>10922957.5255661</v>
+        <v>8174351.858727739</v>
       </c>
       <c r="J26" t="n">
-        <v>11049279.60081583</v>
+        <v>8327230.824787097</v>
       </c>
       <c r="K26" t="n">
-        <v>11174656.55149406</v>
+        <v>8452767.040908769</v>
       </c>
       <c r="L26" t="n">
-        <v>11299469.83090907</v>
+        <v>8495144.559797436</v>
       </c>
       <c r="M26" t="n">
-        <v>11423621.72989988</v>
+        <v>8426447.977101795</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>12641089.49989432</v>
+        <v>3130926.739200896</v>
       </c>
       <c r="C27" t="n">
-        <v>12513786.39368254</v>
+        <v>3132030.542930791</v>
       </c>
       <c r="D27" t="n">
-        <v>12367439.42532543</v>
+        <v>3129798.519443727</v>
       </c>
       <c r="E27" t="n">
-        <v>12202769.90523903</v>
+        <v>3127685.899406712</v>
       </c>
       <c r="F27" t="n">
-        <v>12020576.09917467</v>
+        <v>3131265.249757518</v>
       </c>
       <c r="G27" t="n">
-        <v>11821727.18401887</v>
+        <v>3131895.310567343</v>
       </c>
       <c r="H27" t="n">
-        <v>11607156.73659401</v>
+        <v>3132215.04833508</v>
       </c>
       <c r="I27" t="n">
-        <v>11377855.81954465</v>
+        <v>3132533.742555223</v>
       </c>
       <c r="J27" t="n">
-        <v>11134865.7382805</v>
+        <v>3134013.479099363</v>
       </c>
       <c r="K27" t="n">
-        <v>10879270.53766392</v>
+        <v>3133010.618328608</v>
       </c>
       <c r="L27" t="n">
-        <v>10612189.31521844</v>
+        <v>3130474.829787772</v>
       </c>
       <c r="M27" t="n">
-        <v>10334768.42311296</v>
+        <v>3131634.767876258</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>14138342.78249669</v>
+        <v>8382192.85875874</v>
       </c>
       <c r="C28" t="n">
-        <v>12093365.90904621</v>
+        <v>8382192.85875874</v>
       </c>
       <c r="D28" t="n">
-        <v>10001694.20991412</v>
+        <v>8382192.85875874</v>
       </c>
       <c r="E28" t="n">
-        <v>8041167.626109393</v>
+        <v>8382192.85875874</v>
       </c>
       <c r="F28" t="n">
-        <v>6314149.050347065</v>
+        <v>8382192.85875874</v>
       </c>
       <c r="G28" t="n">
-        <v>4860936.281126171</v>
+        <v>8382192.85875874</v>
       </c>
       <c r="H28" t="n">
-        <v>3680165.023637051</v>
+        <v>8382192.85875874</v>
       </c>
       <c r="I28" t="n">
-        <v>2746798.695654171</v>
+        <v>8382192.85875874</v>
       </c>
       <c r="J28" t="n">
-        <v>2025173.936675357</v>
+        <v>8382192.85875874</v>
       </c>
       <c r="K28" t="n">
-        <v>1477328.361852535</v>
+        <v>8382192.85875874</v>
       </c>
       <c r="L28" t="n">
-        <v>1067698.998281968</v>
+        <v>8382192.85875874</v>
       </c>
       <c r="M28" t="n">
-        <v>765344.6409064119</v>
+        <v>8382192.85875874</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4500481.716819525</v>
+        <v>1952509.376511018</v>
       </c>
       <c r="C29" t="n">
-        <v>4500488.349587232</v>
+        <v>1973906.925206927</v>
       </c>
       <c r="D29" t="n">
-        <v>4500495.291569099</v>
+        <v>1998871.005715258</v>
       </c>
       <c r="E29" t="n">
-        <v>4500501.572510391</v>
+        <v>2031427.077181737</v>
       </c>
       <c r="F29" t="n">
-        <v>4500507.611847714</v>
+        <v>2070933.149774857</v>
       </c>
       <c r="G29" t="n">
-        <v>4500514.16506581</v>
+        <v>2112282.267483776</v>
       </c>
       <c r="H29" t="n">
-        <v>4500520.755508631</v>
+        <v>2148672.305132826</v>
       </c>
       <c r="I29" t="n">
-        <v>4500527.724247918</v>
+        <v>2175291.824168082</v>
       </c>
       <c r="J29" t="n">
-        <v>4500533.858922645</v>
+        <v>2191736.336096243</v>
       </c>
       <c r="K29" t="n">
-        <v>4500540.138416007</v>
+        <v>2202054.10327084</v>
       </c>
       <c r="L29" t="n">
-        <v>4500547.087384671</v>
+        <v>2212700.166006942</v>
       </c>
       <c r="M29" t="n">
-        <v>4500553.124477416</v>
+        <v>2229364.404133081</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>32291447.04097469</v>
+        <v>364540.2685791237</v>
       </c>
       <c r="C30" t="n">
-        <v>32291584.66134358</v>
+        <v>279562.8984174156</v>
       </c>
       <c r="D30" t="n">
-        <v>32291293.7968489</v>
+        <v>235588.028718302</v>
       </c>
       <c r="E30" t="n">
-        <v>32291269.71150683</v>
+        <v>228925.9815286763</v>
       </c>
       <c r="F30" t="n">
-        <v>32291569.9783074</v>
+        <v>214571.7929015805</v>
       </c>
       <c r="G30" t="n">
-        <v>32291476.85693917</v>
+        <v>221717.2668032704</v>
       </c>
       <c r="H30" t="n">
-        <v>32291212.93993962</v>
+        <v>206912.1946446878</v>
       </c>
       <c r="I30" t="n">
-        <v>32291409.07756399</v>
+        <v>217812.3695838557</v>
       </c>
       <c r="J30" t="n">
-        <v>32291596.43491987</v>
+        <v>200500.7717054448</v>
       </c>
       <c r="K30" t="n">
-        <v>32291327.16439288</v>
+        <v>214266.5366221907</v>
       </c>
       <c r="L30" t="n">
-        <v>32291244.91343705</v>
+        <v>194765.8753255086</v>
       </c>
       <c r="M30" t="n">
-        <v>32291546.29031891</v>
+        <v>211157.1310661032</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34364620.84873162</v>
+        <v>661874.1544396786</v>
       </c>
       <c r="C31" t="n">
-        <v>34364620.84874971</v>
+        <v>643976.5266715037</v>
       </c>
       <c r="D31" t="n">
-        <v>34364620.8487309</v>
+        <v>618258.0617284295</v>
       </c>
       <c r="E31" t="n">
-        <v>34364620.84867517</v>
+        <v>590782.4592491731</v>
       </c>
       <c r="F31" t="n">
-        <v>34364620.84858253</v>
+        <v>567382.4413932108</v>
       </c>
       <c r="G31" t="n">
-        <v>34364620.84845297</v>
+        <v>552739.6778579091</v>
       </c>
       <c r="H31" t="n">
-        <v>34364620.84828649</v>
+        <v>549901.7811973831</v>
       </c>
       <c r="I31" t="n">
-        <v>34364620.8480831</v>
+        <v>559841.6139162527</v>
       </c>
       <c r="J31" t="n">
-        <v>34364620.84784281</v>
+        <v>580955.9640286805</v>
       </c>
       <c r="K31" t="n">
-        <v>34364620.84756562</v>
+        <v>608859.0015243092</v>
       </c>
       <c r="L31" t="n">
-        <v>34364620.84725153</v>
+        <v>636994.6037755851</v>
       </c>
       <c r="M31" t="n">
-        <v>34364620.84690054</v>
+        <v>658262.6947790498</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>214219.9679341228</v>
+        <v>1413535.387717044</v>
       </c>
       <c r="C32" t="n">
-        <v>214771.4537811731</v>
+        <v>1319115.986777889</v>
       </c>
       <c r="D32" t="n">
-        <v>215322.0907886177</v>
+        <v>1227052.677328693</v>
       </c>
       <c r="E32" t="n">
-        <v>215871.8667533207</v>
+        <v>1139804.474844208</v>
       </c>
       <c r="F32" t="n">
-        <v>216420.7695876085</v>
+        <v>1058945.723633939</v>
       </c>
       <c r="G32" t="n">
-        <v>216968.7873186078</v>
+        <v>985348.4684010579</v>
       </c>
       <c r="H32" t="n">
-        <v>217515.9080875497</v>
+        <v>919351.7139013814</v>
       </c>
       <c r="I32" t="n">
-        <v>218062.1201491058</v>
+        <v>860907.8897728957</v>
       </c>
       <c r="J32" t="n">
-        <v>218607.4118707175</v>
+        <v>809703.5161314948</v>
       </c>
       <c r="K32" t="n">
-        <v>219151.7717319266</v>
+        <v>765254.7988878924</v>
       </c>
       <c r="L32" t="n">
-        <v>219695.1883237166</v>
+        <v>726980.7701651959</v>
       </c>
       <c r="M32" t="n">
-        <v>220237.6503478447</v>
+        <v>694257.3532852277</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3625897.998572459</v>
+        <v>2524347.772972087</v>
       </c>
       <c r="C33" t="n">
-        <v>2228725.609012887</v>
+        <v>2546427.687999588</v>
       </c>
       <c r="D33" t="n">
-        <v>1780548.309987706</v>
+        <v>2566746.424035386</v>
       </c>
       <c r="E33" t="n">
-        <v>1674234.800659517</v>
+        <v>2585323.829280291</v>
       </c>
       <c r="F33" t="n">
-        <v>1652578.691155389</v>
+        <v>2602182.491544353</v>
       </c>
       <c r="G33" t="n">
-        <v>1648492.141012181</v>
+        <v>2617347.473301706</v>
       </c>
       <c r="H33" t="n">
-        <v>1647694.774174966</v>
+        <v>2630846.063071967</v>
       </c>
       <c r="I33" t="n">
-        <v>1647476.775515052</v>
+        <v>2642707.542286245</v>
       </c>
       <c r="J33" t="n">
-        <v>1647362.647352071</v>
+        <v>2652962.966835244</v>
       </c>
       <c r="K33" t="n">
-        <v>1647275.254340008</v>
+        <v>2661644.962534408</v>
       </c>
       <c r="L33" t="n">
-        <v>1647204.420804884</v>
+        <v>2668787.533777088</v>
       </c>
       <c r="M33" t="n">
-        <v>1647150.42946339</v>
+        <v>2674425.884681004</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>11605473.98773823</v>
+        <v>2218876.141153241</v>
       </c>
       <c r="C34" t="n">
-        <v>11775926.97016229</v>
+        <v>2218936.287172153</v>
       </c>
       <c r="D34" t="n">
-        <v>11937253.58642939</v>
+        <v>2219058.549641395</v>
       </c>
       <c r="E34" t="n">
-        <v>12091472.43004503</v>
+        <v>2219206.07560691</v>
       </c>
       <c r="F34" t="n">
-        <v>12237741.96816553</v>
+        <v>2219334.399258461</v>
       </c>
       <c r="G34" t="n">
-        <v>12373109.26073382</v>
+        <v>2219404.843676022</v>
       </c>
       <c r="H34" t="n">
-        <v>12495180.22421014</v>
+        <v>2219396.176588808</v>
       </c>
       <c r="I34" t="n">
-        <v>12604316.45126409</v>
+        <v>2219311.009233199</v>
       </c>
       <c r="J34" t="n">
-        <v>12703388.85834747</v>
+        <v>2219175.010579243</v>
       </c>
       <c r="K34" t="n">
-        <v>12795306.23796015</v>
+        <v>2219029.172327003</v>
       </c>
       <c r="L34" t="n">
-        <v>12880529.53076901</v>
+        <v>2218917.453861229</v>
       </c>
       <c r="M34" t="n">
-        <v>12956796.65063155</v>
+        <v>2218873.530610067</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3430280.081071567</v>
+        <v>969515.6670931835</v>
       </c>
       <c r="C35" t="n">
-        <v>3376583.795583618</v>
+        <v>821848.1699103669</v>
       </c>
       <c r="D35" t="n">
-        <v>3316108.068355636</v>
+        <v>683955.4923055347</v>
       </c>
       <c r="E35" t="n">
-        <v>3249296.325847291</v>
+        <v>560344.1515859724</v>
       </c>
       <c r="F35" t="n">
-        <v>3176619.888497949</v>
+        <v>452939.8816987246</v>
       </c>
       <c r="G35" t="n">
-        <v>3098573.291463219</v>
+        <v>361888.1263460903</v>
       </c>
       <c r="H35" t="n">
-        <v>3015669.513809249</v>
+        <v>286222.7616352548</v>
       </c>
       <c r="I35" t="n">
-        <v>2928435.174396685</v>
+        <v>224370.7819119983</v>
       </c>
       <c r="J35" t="n">
-        <v>2837405.751873428</v>
+        <v>174505.1204562302</v>
       </c>
       <c r="K35" t="n">
-        <v>2743120.883833644</v>
+        <v>134774.0244363521</v>
       </c>
       <c r="L35" t="n">
-        <v>2646119.797243843</v>
+        <v>103437.8563343527</v>
       </c>
       <c r="M35" t="n">
-        <v>2546936.918989261</v>
+        <v>78940.65402367534</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3215908.400963648</v>
+        <v>1066277.231561911</v>
       </c>
       <c r="C36" t="n">
-        <v>3190903.526350982</v>
+        <v>1066277.231561923</v>
       </c>
       <c r="D36" t="n">
-        <v>3153788.410307172</v>
+        <v>1066277.231561936</v>
       </c>
       <c r="E36" t="n">
-        <v>3106126.625817923</v>
+        <v>1066277.23156195</v>
       </c>
       <c r="F36" t="n">
-        <v>3049673.488425092</v>
+        <v>1066277.231561962</v>
       </c>
       <c r="G36" t="n">
-        <v>2986226.064638554</v>
+        <v>1066277.231561971</v>
       </c>
       <c r="H36" t="n">
-        <v>2917522.314217345</v>
+        <v>1066277.231561986</v>
       </c>
       <c r="I36" t="n">
-        <v>2845176.754543776</v>
+        <v>1066277.231561996</v>
       </c>
       <c r="J36" t="n">
-        <v>2770642.89715933</v>
+        <v>1066277.23156201</v>
       </c>
       <c r="K36" t="n">
-        <v>2695194.966480067</v>
+        <v>1066277.231562023</v>
       </c>
       <c r="L36" t="n">
-        <v>2619923.188935815</v>
+        <v>1066277.231562032</v>
       </c>
       <c r="M36" t="n">
-        <v>2545738.334357847</v>
+        <v>1066277.231562046</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4844054.668599704</v>
+        <v>3317528.943656613</v>
       </c>
       <c r="C37" t="n">
-        <v>4844042.448000783</v>
+        <v>3270467.500829129</v>
       </c>
       <c r="D37" t="n">
-        <v>4844024.699874382</v>
+        <v>3221449.925827903</v>
       </c>
       <c r="E37" t="n">
-        <v>4844001.442112183</v>
+        <v>3170594.432514016</v>
       </c>
       <c r="F37" t="n">
-        <v>4843972.698122296</v>
+        <v>3118021.55551705</v>
       </c>
       <c r="G37" t="n">
-        <v>4843938.496805174</v>
+        <v>3063853.688158249</v>
       </c>
       <c r="H37" t="n">
-        <v>4843898.87252395</v>
+        <v>3008214.622948553</v>
       </c>
       <c r="I37" t="n">
-        <v>4843853.865069292</v>
+        <v>2951229.096974718</v>
       </c>
       <c r="J37" t="n">
-        <v>4843803.519618793</v>
+        <v>2893022.344399838</v>
       </c>
       <c r="K37" t="n">
-        <v>4843747.886690908</v>
+        <v>2833719.658204386</v>
       </c>
       <c r="L37" t="n">
-        <v>4843687.022093553</v>
+        <v>2773445.963181884</v>
       </c>
       <c r="M37" t="n">
-        <v>4843620.986867361</v>
+        <v>2712325.40208032</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2684587.604366536</v>
+        <v>2895804.587471061</v>
       </c>
       <c r="C38" t="n">
-        <v>2684841.104848583</v>
+        <v>2895846.893317093</v>
       </c>
       <c r="D38" t="n">
-        <v>2684926.41093288</v>
+        <v>2896527.840272401</v>
       </c>
       <c r="E38" t="n">
-        <v>2685021.173714605</v>
+        <v>2897366.775690542</v>
       </c>
       <c r="F38" t="n">
-        <v>2685525.734675031</v>
+        <v>2897771.508696239</v>
       </c>
       <c r="G38" t="n">
-        <v>2684759.535354671</v>
+        <v>2897456.313975402</v>
       </c>
       <c r="H38" t="n">
-        <v>2685149.58114126</v>
+        <v>2896643.685449068</v>
       </c>
       <c r="I38" t="n">
-        <v>2685921.619018588</v>
+        <v>2895907.279660581</v>
       </c>
       <c r="J38" t="n">
-        <v>2685124.682343893</v>
+        <v>2895766.912641489</v>
       </c>
       <c r="K38" t="n">
-        <v>2684979.006661974</v>
+        <v>2896321.644649604</v>
       </c>
       <c r="L38" t="n">
-        <v>2685338.748277695</v>
+        <v>2897179.909988159</v>
       </c>
       <c r="M38" t="n">
-        <v>2685975.656089759</v>
+        <v>2897735.882710449</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2804936.318396323</v>
+        <v>4152718.820105231</v>
       </c>
       <c r="C39" t="n">
-        <v>2806832.660121214</v>
+        <v>4106591.553091933</v>
       </c>
       <c r="D39" t="n">
-        <v>2805014.671908814</v>
+        <v>4056730.442735511</v>
       </c>
       <c r="E39" t="n">
-        <v>2806751.943886109</v>
+        <v>4003345.193731126</v>
       </c>
       <c r="F39" t="n">
-        <v>2805097.637446875</v>
+        <v>3946657.686606108</v>
       </c>
       <c r="G39" t="n">
-        <v>2806666.821206067</v>
+        <v>3886900.336308036</v>
       </c>
       <c r="H39" t="n">
-        <v>2805184.784381875</v>
+        <v>3824314.34728016</v>
       </c>
       <c r="I39" t="n">
-        <v>2806577.734055469</v>
+        <v>3759147.891715556</v>
       </c>
       <c r="J39" t="n">
-        <v>2805275.660431555</v>
+        <v>3691654.238980838</v>
       </c>
       <c r="K39" t="n">
-        <v>2806485.145040688</v>
+        <v>3622089.864736652</v>
       </c>
       <c r="L39" t="n">
-        <v>2805369.794005546</v>
+        <v>3550712.568080346</v>
       </c>
       <c r="M39" t="n">
-        <v>2806389.534995732</v>
+        <v>3477779.624138017</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>7912623.921623707</v>
+        <v>3796379.183576419</v>
       </c>
       <c r="C40" t="n">
-        <v>8191145.879941214</v>
+        <v>3778387.481158993</v>
       </c>
       <c r="D40" t="n">
-        <v>8302273.664567493</v>
+        <v>3766824.375748397</v>
       </c>
       <c r="E40" t="n">
-        <v>8177820.991172938</v>
+        <v>3804235.520866311</v>
       </c>
       <c r="F40" t="n">
-        <v>7973638.481296606</v>
+        <v>3750083.298292216</v>
       </c>
       <c r="G40" t="n">
-        <v>7852800.086787421</v>
+        <v>3813923.300980194</v>
       </c>
       <c r="H40" t="n">
-        <v>8042425.130218111</v>
+        <v>3755729.301023398</v>
       </c>
       <c r="I40" t="n">
-        <v>8284684.883116532</v>
+        <v>3796675.619611296</v>
       </c>
       <c r="J40" t="n">
-        <v>8258099.380871197</v>
+        <v>3778099.877948842</v>
       </c>
       <c r="K40" t="n">
-        <v>8082219.119138082</v>
+        <v>3767107.424760089</v>
       </c>
       <c r="L40" t="n">
-        <v>7884953.209908051</v>
+        <v>3804009.591069977</v>
       </c>
       <c r="M40" t="n">
-        <v>7908807.630920084</v>
+        <v>3750142.886875398</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6516405.288877762</v>
+        <v>2238371.408425532</v>
       </c>
       <c r="C41" t="n">
-        <v>6701203.314087208</v>
+        <v>2238370.616039999</v>
       </c>
       <c r="D41" t="n">
-        <v>7189504.920740085</v>
+        <v>2238369.979961385</v>
       </c>
       <c r="E41" t="n">
-        <v>6991517.659363978</v>
+        <v>2238370.806028703</v>
       </c>
       <c r="F41" t="n">
-        <v>6576791.490182985</v>
+        <v>2238370.262207517</v>
       </c>
       <c r="G41" t="n">
-        <v>6925612.147654827</v>
+        <v>2238369.822223537</v>
       </c>
       <c r="H41" t="n">
-        <v>7212046.665549622</v>
+        <v>2238369.208049298</v>
       </c>
       <c r="I41" t="n">
-        <v>6764177.323423767</v>
+        <v>2238371.960122984</v>
       </c>
       <c r="J41" t="n">
-        <v>6634535.697737105</v>
+        <v>2238369.918720305</v>
       </c>
       <c r="K41" t="n">
-        <v>7132700.46776822</v>
+        <v>2238367.316047148</v>
       </c>
       <c r="L41" t="n">
-        <v>7080515.946094125</v>
+        <v>2238371.533922017</v>
       </c>
       <c r="M41" t="n">
-        <v>6602899.151359612</v>
+        <v>2238367.373486781</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>7927208.177463406</v>
+        <v>3076415.630450076</v>
       </c>
       <c r="C42" t="n">
-        <v>7874875.200801088</v>
+        <v>3076191.385616341</v>
       </c>
       <c r="D42" t="n">
-        <v>7813241.729441542</v>
+        <v>3076002.757381276</v>
       </c>
       <c r="E42" t="n">
-        <v>7742514.967860631</v>
+        <v>3075875.250320222</v>
       </c>
       <c r="F42" t="n">
-        <v>7662935.122120011</v>
+        <v>3075826.111804131</v>
       </c>
       <c r="G42" t="n">
-        <v>7574773.969181346</v>
+        <v>3075861.995134952</v>
       </c>
       <c r="H42" t="n">
-        <v>7478333.236701339</v>
+        <v>3075978.054672497</v>
       </c>
       <c r="I42" t="n">
-        <v>7373942.804789977</v>
+        <v>3076158.598117616</v>
       </c>
       <c r="J42" t="n">
-        <v>7261958.746063711</v>
+        <v>3076379.20922643</v>
       </c>
       <c r="K42" t="n">
-        <v>7142761.220778663</v>
+        <v>3076610.05330464</v>
       </c>
       <c r="L42" t="n">
-        <v>7016752.244868038</v>
+        <v>3076819.916151764</v>
       </c>
       <c r="M42" t="n">
-        <v>6884353.3490518</v>
+        <v>3076980.42747935</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4671242.873749327</v>
+        <v>2592162.258689965</v>
       </c>
       <c r="C43" t="n">
-        <v>4671242.878639162</v>
+        <v>2592296.882441175</v>
       </c>
       <c r="D43" t="n">
-        <v>4671242.882313501</v>
+        <v>2592122.334321903</v>
       </c>
       <c r="E43" t="n">
-        <v>4671242.884772349</v>
+        <v>2592286.632020862</v>
       </c>
       <c r="F43" t="n">
-        <v>4671242.886015697</v>
+        <v>2592179.814613256</v>
       </c>
       <c r="G43" t="n">
-        <v>4671242.886043553</v>
+        <v>2592198.437508816</v>
       </c>
       <c r="H43" t="n">
-        <v>4671242.884855912</v>
+        <v>2592273.3591873</v>
       </c>
       <c r="I43" t="n">
-        <v>4671242.882452773</v>
+        <v>2592126.434500142</v>
       </c>
       <c r="J43" t="n">
-        <v>4671242.87883414</v>
+        <v>2592303.130694099</v>
       </c>
       <c r="K43" t="n">
-        <v>4671242.874000015</v>
+        <v>2592147.462272509</v>
       </c>
       <c r="L43" t="n">
-        <v>4671242.867950398</v>
+        <v>2592237.347342185</v>
       </c>
       <c r="M43" t="n">
-        <v>4671242.86068529</v>
+        <v>2592239.078966468</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>8959019.289031493</v>
+        <v>4879173.535872979</v>
       </c>
       <c r="C44" t="n">
-        <v>8466995.402105406</v>
+        <v>4879173.535872985</v>
       </c>
       <c r="D44" t="n">
-        <v>7940438.198211354</v>
+        <v>4879173.535872991</v>
       </c>
       <c r="E44" t="n">
-        <v>7416769.527863203</v>
+        <v>4879173.535872995</v>
       </c>
       <c r="F44" t="n">
-        <v>6935728.288558944</v>
+        <v>4879173.535872999</v>
       </c>
       <c r="G44" t="n">
-        <v>6534703.355688997</v>
+        <v>4879173.535873002</v>
       </c>
       <c r="H44" t="n">
-        <v>6244178.577071181</v>
+        <v>4879173.535873007</v>
       </c>
       <c r="I44" t="n">
-        <v>6084236.685939267</v>
+        <v>4879173.535873005</v>
       </c>
       <c r="J44" t="n">
-        <v>6062796.038259426</v>
+        <v>4879173.535873013</v>
       </c>
       <c r="K44" t="n">
-        <v>6175787.316414488</v>
+        <v>4879173.535873016</v>
       </c>
       <c r="L44" t="n">
-        <v>6408975.707026696</v>
+        <v>4879173.535873023</v>
       </c>
       <c r="M44" t="n">
-        <v>6740775.962404452</v>
+        <v>4879173.535873028</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5128657.004278317</v>
+        <v>2439206.120341167</v>
       </c>
       <c r="C45" t="n">
-        <v>5128203.968870033</v>
+        <v>2439193.200735182</v>
       </c>
       <c r="D45" t="n">
-        <v>5119628.426781096</v>
+        <v>2439210.15474273</v>
       </c>
       <c r="E45" t="n">
-        <v>5104070.936031785</v>
+        <v>2439320.671844866</v>
       </c>
       <c r="F45" t="n">
-        <v>5081887.148485214</v>
+        <v>2439098.976176896</v>
       </c>
       <c r="G45" t="n">
-        <v>5053253.831612668</v>
+        <v>2438948.936209112</v>
       </c>
       <c r="H45" t="n">
-        <v>5019256.378817616</v>
+        <v>2438986.467298363</v>
       </c>
       <c r="I45" t="n">
-        <v>4980238.560686937</v>
+        <v>2439030.438206934</v>
       </c>
       <c r="J45" t="n">
-        <v>4936741.246256097</v>
+        <v>2438921.615312928</v>
       </c>
       <c r="K45" t="n">
-        <v>4889286.931370862</v>
+        <v>2439053.175505525</v>
       </c>
       <c r="L45" t="n">
-        <v>4837988.155935794</v>
+        <v>2439179.018465483</v>
       </c>
       <c r="M45" t="n">
-        <v>4783474.411431576</v>
+        <v>2439054.185870929</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>8280682.754278619</v>
+        <v>1933015.067698156</v>
       </c>
       <c r="C46" t="n">
-        <v>8309009.338815595</v>
+        <v>2055759.11970544</v>
       </c>
       <c r="D46" t="n">
-        <v>8280801.338803506</v>
+        <v>2151376.814634139</v>
       </c>
       <c r="E46" t="n">
-        <v>8308887.047582379</v>
+        <v>2136422.543460249</v>
       </c>
       <c r="F46" t="n">
-        <v>8280927.842222232</v>
+        <v>2095079.687719415</v>
       </c>
       <c r="G46" t="n">
-        <v>8308756.8380429</v>
+        <v>2025417.032550465</v>
       </c>
       <c r="H46" t="n">
-        <v>8281062.192994705</v>
+        <v>1928021.655473272</v>
       </c>
       <c r="I46" t="n">
-        <v>8308618.783428824</v>
+        <v>1939604.280867091</v>
       </c>
       <c r="J46" t="n">
-        <v>8281204.315185341</v>
+        <v>2066904.45993302</v>
       </c>
       <c r="K46" t="n">
-        <v>8308472.961425261</v>
+        <v>2153697.930382112</v>
       </c>
       <c r="L46" t="n">
-        <v>8281354.128506266</v>
+        <v>2132982.707464543</v>
       </c>
       <c r="M46" t="n">
-        <v>8308319.454127313</v>
+        <v>2091500.904166601</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1691790.809659109</v>
+        <v>1367474.486939796</v>
       </c>
       <c r="C47" t="n">
-        <v>1722947.889553946</v>
+        <v>1310478.436852539</v>
       </c>
       <c r="D47" t="n">
-        <v>1753455.423236768</v>
+        <v>1249597.759089264</v>
       </c>
       <c r="E47" t="n">
-        <v>1783301.977928058</v>
+        <v>1185971.731699093</v>
       </c>
       <c r="F47" t="n">
-        <v>1812477.326809213</v>
+        <v>1120659.486713182</v>
       </c>
       <c r="G47" t="n">
-        <v>1840972.395781897</v>
+        <v>1054615.33481778</v>
       </c>
       <c r="H47" t="n">
-        <v>1868779.212062183</v>
+        <v>988676.3373198842</v>
       </c>
       <c r="I47" t="n">
-        <v>1895890.8545537</v>
+        <v>923558.608360258</v>
       </c>
       <c r="J47" t="n">
-        <v>1922301.4059456</v>
+        <v>859859.6615693795</v>
       </c>
       <c r="K47" t="n">
-        <v>1948005.906482631</v>
+        <v>798064.7697137308</v>
       </c>
       <c r="L47" t="n">
-        <v>1973000.309356214</v>
+        <v>738555.8185523862</v>
       </c>
       <c r="M47" t="n">
-        <v>1997281.437666678</v>
+        <v>681621.535637742</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>277116.6096010742</v>
+        <v>3102389.505080257</v>
       </c>
       <c r="C48" t="n">
-        <v>277094.4258498763</v>
+        <v>3102389.505096463</v>
       </c>
       <c r="D48" t="n">
-        <v>277124.9364383848</v>
+        <v>3102389.505112484</v>
       </c>
       <c r="E48" t="n">
-        <v>277098.091778399</v>
+        <v>3102389.505128318</v>
       </c>
       <c r="F48" t="n">
-        <v>277105.844836252</v>
+        <v>3102389.505143963</v>
       </c>
       <c r="G48" t="n">
-        <v>277112.5401308209</v>
+        <v>3102389.505159427</v>
       </c>
       <c r="H48" t="n">
-        <v>277110.8120995657</v>
+        <v>3102389.5051747</v>
       </c>
       <c r="I48" t="n">
-        <v>277112.6016124875</v>
+        <v>3102389.505189787</v>
       </c>
       <c r="J48" t="n">
-        <v>277129.8728688181</v>
+        <v>3102389.505204691</v>
       </c>
       <c r="K48" t="n">
-        <v>277100.6739898255</v>
+        <v>3102389.505219405</v>
       </c>
       <c r="L48" t="n">
-        <v>277114.976717558</v>
+        <v>3102389.505233929</v>
       </c>
       <c r="M48" t="n">
-        <v>277133.1110686832</v>
+        <v>3102389.505248273</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>633463.6123653795</v>
+        <v>513948.0333348079</v>
       </c>
       <c r="C49" t="n">
-        <v>633482.7206512224</v>
+        <v>382053.8204629889</v>
       </c>
       <c r="D49" t="n">
-        <v>633311.2025024379</v>
+        <v>316232.660114912</v>
       </c>
       <c r="E49" t="n">
-        <v>632949.4873676829</v>
+        <v>284127.1934369864</v>
       </c>
       <c r="F49" t="n">
-        <v>632398.1707411804</v>
+        <v>266681.8181210204</v>
       </c>
       <c r="G49" t="n">
-        <v>631658.0130003197</v>
+        <v>255249.8266035994</v>
       </c>
       <c r="H49" t="n">
-        <v>630729.9379911562</v>
+        <v>246412.6901690513</v>
       </c>
       <c r="I49" t="n">
-        <v>629615.0313953835</v>
+        <v>238968.0333163973</v>
       </c>
       <c r="J49" t="n">
-        <v>628314.5388723245</v>
+        <v>232559.3468128962</v>
       </c>
       <c r="K49" t="n">
-        <v>626829.8639693214</v>
+        <v>227126.5362872256</v>
       </c>
       <c r="L49" t="n">
-        <v>625162.565826949</v>
+        <v>222706.0809001306</v>
       </c>
       <c r="M49" t="n">
-        <v>623314.3566632646</v>
+        <v>219365.0330944814</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1572206.449582504</v>
+        <v>2488153.528444286</v>
       </c>
       <c r="C50" t="n">
-        <v>1533951.611318175</v>
+        <v>2387643.595046336</v>
       </c>
       <c r="D50" t="n">
-        <v>1491859.29136745</v>
+        <v>2278817.896820091</v>
       </c>
       <c r="E50" t="n">
-        <v>1446486.506857987</v>
+        <v>2164838.684751652</v>
       </c>
       <c r="F50" t="n">
-        <v>1398397.273421141</v>
+        <v>2048468.596805445</v>
       </c>
       <c r="G50" t="n">
-        <v>1348145.11773473</v>
+        <v>1932041.428065038</v>
       </c>
       <c r="H50" t="n">
-        <v>1296260.372776968</v>
+        <v>1817466.871049294</v>
       </c>
       <c r="I50" t="n">
-        <v>1243241.302171289</v>
+        <v>1706256.406973379</v>
       </c>
       <c r="J50" t="n">
-        <v>1189548.264448853</v>
+        <v>1599561.263561908</v>
       </c>
       <c r="K50" t="n">
-        <v>1135600.266475928</v>
+        <v>1498216.129854731</v>
       </c>
       <c r="L50" t="n">
-        <v>1081773.371576584</v>
+        <v>1402784.362008215</v>
       </c>
       <c r="M50" t="n">
-        <v>1028400.525359496</v>
+        <v>1313601.903355478</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2428025.998162018</v>
+        <v>3153159.537443566</v>
       </c>
       <c r="C51" t="n">
-        <v>2467558.453645402</v>
+        <v>3175467.884476781</v>
       </c>
       <c r="D51" t="n">
-        <v>2506751.674201377</v>
+        <v>3190395.993002902</v>
       </c>
       <c r="E51" t="n">
-        <v>2545641.368938855</v>
+        <v>3198279.369744259</v>
       </c>
       <c r="F51" t="n">
-        <v>2584181.763654856</v>
+        <v>3199477.704766454</v>
       </c>
       <c r="G51" t="n">
-        <v>2622264.638484272</v>
+        <v>3194350.407913045</v>
       </c>
       <c r="H51" t="n">
-        <v>2659769.356285316</v>
+        <v>3183264.896238214</v>
       </c>
       <c r="I51" t="n">
-        <v>2696619.202395779</v>
+        <v>3166616.195297385</v>
       </c>
       <c r="J51" t="n">
-        <v>2732816.276838738</v>
+        <v>3144823.026646337</v>
       </c>
       <c r="K51" t="n">
-        <v>2768437.768054966</v>
+        <v>3118298.032629545</v>
       </c>
       <c r="L51" t="n">
-        <v>2803595.440124407</v>
+        <v>3087426.498586258</v>
       </c>
       <c r="M51" t="n">
-        <v>2838378.26246649</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2194958.406929906</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2195779.056289019</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2196130.797225914</v>
-      </c>
-      <c r="E52" t="n">
-        <v>2195532.527859349</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2194802.698030815</v>
-      </c>
-      <c r="G52" t="n">
-        <v>2194939.769546421</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2195756.321553669</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2196135.070320121</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2195557.958462785</v>
-      </c>
-      <c r="K52" t="n">
-        <v>2194814.499424736</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2194921.791504543</v>
-      </c>
-      <c r="M52" t="n">
-        <v>2195733.161969164</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1402632.999706478</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1318799.062377062</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1217773.780029511</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1103684.53048049</v>
-      </c>
-      <c r="F53" t="n">
-        <v>981413.2596827062</v>
-      </c>
-      <c r="G53" t="n">
-        <v>856046.6363413521</v>
-      </c>
-      <c r="H53" t="n">
-        <v>732386.8837512397</v>
-      </c>
-      <c r="I53" t="n">
-        <v>614572.3761486188</v>
-      </c>
-      <c r="J53" t="n">
-        <v>505833.0302660312</v>
-      </c>
-      <c r="K53" t="n">
-        <v>408382.7073217144</v>
-      </c>
-      <c r="L53" t="n">
-        <v>323432.5981357181</v>
-      </c>
-      <c r="M53" t="n">
-        <v>251297.6993849218</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1029556.745515681</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1029560.664712321</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1029552.595756705</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1029535.48948983</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1029515.60178139</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1029500.205736904</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1029494.931837315</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1029501.708785224</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1029518.058165853</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1029538.000868181</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1029554.243719392</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1029560.846625061</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>3079513.458526907</v>
-      </c>
-      <c r="C55" t="n">
-        <v>3228263.761109732</v>
-      </c>
-      <c r="D55" t="n">
-        <v>3259827.654165727</v>
-      </c>
-      <c r="E55" t="n">
-        <v>3264365.118540836</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3264909.024130461</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3264967.680279492</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3264973.594119623</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3264974.170731375</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3264974.229008351</v>
-      </c>
-      <c r="K55" t="n">
-        <v>3264974.233754082</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3264974.228097944</v>
-      </c>
-      <c r="M55" t="n">
-        <v>3264974.215926124</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>2856035.019002754</v>
-      </c>
-      <c r="C56" t="n">
-        <v>2856035.012784809</v>
-      </c>
-      <c r="D56" t="n">
-        <v>2856035.030132308</v>
-      </c>
-      <c r="E56" t="n">
-        <v>2856035.049858843</v>
-      </c>
-      <c r="F56" t="n">
-        <v>2856035.047872511</v>
-      </c>
-      <c r="G56" t="n">
-        <v>2856035.026599203</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2856035.012019894</v>
-      </c>
-      <c r="I56" t="n">
-        <v>2856035.021940212</v>
-      </c>
-      <c r="J56" t="n">
-        <v>2856035.044244527</v>
-      </c>
-      <c r="K56" t="n">
-        <v>2856035.051692706</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2856035.03518833</v>
-      </c>
-      <c r="M56" t="n">
-        <v>2856035.014888099</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>3050085.339828917</v>
-      </c>
-      <c r="C57" t="n">
-        <v>2638095.233238784</v>
-      </c>
-      <c r="D57" t="n">
-        <v>2242669.355770333</v>
-      </c>
-      <c r="E57" t="n">
-        <v>1890417.030227533</v>
-      </c>
-      <c r="F57" t="n">
-        <v>1604063.479551266</v>
-      </c>
-      <c r="G57" t="n">
-        <v>1399935.02303095</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1286223.529421969</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1262339.220232001</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1319502.497892665</v>
-      </c>
-      <c r="K57" t="n">
-        <v>1442503.550106999</v>
-      </c>
-      <c r="L57" t="n">
-        <v>1612320.219191871</v>
-      </c>
-      <c r="M57" t="n">
-        <v>1809096.256682252</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>3987673.609416862</v>
-      </c>
-      <c r="C58" t="n">
-        <v>4014204.601254356</v>
-      </c>
-      <c r="D58" t="n">
-        <v>3978313.258442638</v>
-      </c>
-      <c r="E58" t="n">
-        <v>3978738.530488567</v>
-      </c>
-      <c r="F58" t="n">
-        <v>3962924.788989926</v>
-      </c>
-      <c r="G58" t="n">
-        <v>3937426.919389857</v>
-      </c>
-      <c r="H58" t="n">
-        <v>3941986.281175563</v>
-      </c>
-      <c r="I58" t="n">
-        <v>3890881.205492578</v>
-      </c>
-      <c r="J58" t="n">
-        <v>3916078.831837693</v>
-      </c>
-      <c r="K58" t="n">
-        <v>3839811.234440543</v>
-      </c>
-      <c r="L58" t="n">
-        <v>3885874.005129774</v>
-      </c>
-      <c r="M58" t="n">
-        <v>3785012.707978031</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>2678185.246068181</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2668273.923732466</v>
-      </c>
-      <c r="D59" t="n">
-        <v>2656464.665225146</v>
-      </c>
-      <c r="E59" t="n">
-        <v>2642783.809702273</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2627261.584535274</v>
-      </c>
-      <c r="G59" t="n">
-        <v>2609931.99769369</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2590832.717280069</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2570004.938803635</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2547493.240836973</v>
-      </c>
-      <c r="K59" t="n">
-        <v>2523345.429753526</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2497612.374292994</v>
-      </c>
-      <c r="M59" t="n">
-        <v>2470347.830746399</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>2999058.991110853</v>
-      </c>
-      <c r="C60" t="n">
-        <v>2836664.480816065</v>
-      </c>
-      <c r="D60" t="n">
-        <v>2733419.619799163</v>
-      </c>
-      <c r="E60" t="n">
-        <v>2711657.358910086</v>
-      </c>
-      <c r="F60" t="n">
-        <v>2771597.695559815</v>
-      </c>
-      <c r="G60" t="n">
-        <v>2896432.454621742</v>
-      </c>
-      <c r="H60" t="n">
-        <v>3058210.441096955</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3221416.927144281</v>
-      </c>
-      <c r="J60" t="n">
-        <v>3346937.83376428</v>
-      </c>
-      <c r="K60" t="n">
-        <v>3400206.724914379</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3362771.088778095</v>
-      </c>
-      <c r="M60" t="n">
-        <v>3241533.574295318</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2548411.560519147</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2548410.006246353</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2548411.321602024</v>
-      </c>
-      <c r="E61" t="n">
-        <v>2548410.763241724</v>
-      </c>
-      <c r="F61" t="n">
-        <v>2548410.114080003</v>
-      </c>
-      <c r="G61" t="n">
-        <v>2548410.847561029</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2548410.82803414</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2548409.293595434</v>
-      </c>
-      <c r="J61" t="n">
-        <v>2548409.770132528</v>
-      </c>
-      <c r="K61" t="n">
-        <v>2548410.686066621</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2548409.791895309</v>
-      </c>
-      <c r="M61" t="n">
-        <v>2548410.100475685</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>4800446.862498488</v>
-      </c>
-      <c r="C62" t="n">
-        <v>4799759.322600046</v>
-      </c>
-      <c r="D62" t="n">
-        <v>4798949.490517116</v>
-      </c>
-      <c r="E62" t="n">
-        <v>4798021.634721155</v>
-      </c>
-      <c r="F62" t="n">
-        <v>4796980.644872631</v>
-      </c>
-      <c r="G62" t="n">
-        <v>4795832.005912073</v>
-      </c>
-      <c r="H62" t="n">
-        <v>4794581.769016321</v>
-      </c>
-      <c r="I62" t="n">
-        <v>4793236.519576792</v>
-      </c>
-      <c r="J62" t="n">
-        <v>4791803.342372248</v>
-      </c>
-      <c r="K62" t="n">
-        <v>4790289.784123199</v>
-      </c>
-      <c r="L62" t="n">
-        <v>4788703.813628696</v>
-      </c>
-      <c r="M62" t="n">
-        <v>4787053.779698651</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2776532.778357803</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2787253.410591796</v>
-      </c>
-      <c r="D63" t="n">
-        <v>2797647.289742669</v>
-      </c>
-      <c r="E63" t="n">
-        <v>2808031.083430896</v>
-      </c>
-      <c r="F63" t="n">
-        <v>2818362.441957867</v>
-      </c>
-      <c r="G63" t="n">
-        <v>2828454.460245455</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2838423.442999156</v>
-      </c>
-      <c r="I63" t="n">
-        <v>2848268.026765093</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2858001.617273048</v>
-      </c>
-      <c r="K63" t="n">
-        <v>2867588.214945016</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2877114.831609603</v>
-      </c>
-      <c r="M63" t="n">
-        <v>2886329.872980464</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2051278.932346865</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2051278.204430209</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2051277.399310627</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2051276.517207355</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2051275.55836059</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2051274.523031428</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2051273.411501788</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2051272.224074338</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2051270.961072411</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2051269.622839919</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2051268.209741258</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2051266.722161206</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>729070.5902655851</v>
-      </c>
-      <c r="C65" t="n">
-        <v>729070.5902655851</v>
-      </c>
-      <c r="D65" t="n">
-        <v>729070.5902655851</v>
-      </c>
-      <c r="E65" t="n">
-        <v>729070.5902655888</v>
-      </c>
-      <c r="F65" t="n">
-        <v>729070.5902655851</v>
-      </c>
-      <c r="G65" t="n">
-        <v>729070.5902655851</v>
-      </c>
-      <c r="H65" t="n">
-        <v>729070.5902655851</v>
-      </c>
-      <c r="I65" t="n">
-        <v>729070.5902655851</v>
-      </c>
-      <c r="J65" t="n">
-        <v>729070.5902655851</v>
-      </c>
-      <c r="K65" t="n">
-        <v>729070.5902655926</v>
-      </c>
-      <c r="L65" t="n">
-        <v>729070.5902655926</v>
-      </c>
-      <c r="M65" t="n">
-        <v>729070.5902655926</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>4529373.10049371</v>
-      </c>
-      <c r="C66" t="n">
-        <v>3851235.420856782</v>
-      </c>
-      <c r="D66" t="n">
-        <v>3321412.467727352</v>
-      </c>
-      <c r="E66" t="n">
-        <v>3018049.804893339</v>
-      </c>
-      <c r="F66" t="n">
-        <v>2869743.725435972</v>
-      </c>
-      <c r="G66" t="n">
-        <v>2803864.297236913</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2776422.662522919</v>
-      </c>
-      <c r="I66" t="n">
-        <v>2765507.772445545</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2761314.687905411</v>
-      </c>
-      <c r="K66" t="n">
-        <v>2759746.95386097</v>
-      </c>
-      <c r="L66" t="n">
-        <v>2759173.40775495</v>
-      </c>
-      <c r="M66" t="n">
-        <v>2758967.286285955</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>337279.4276469425</v>
-      </c>
-      <c r="C67" t="n">
-        <v>337279.4276469428</v>
-      </c>
-      <c r="D67" t="n">
-        <v>337279.4276469433</v>
-      </c>
-      <c r="E67" t="n">
-        <v>337279.4276469434</v>
-      </c>
-      <c r="F67" t="n">
-        <v>337279.4276469438</v>
-      </c>
-      <c r="G67" t="n">
-        <v>337279.427646944</v>
-      </c>
-      <c r="H67" t="n">
-        <v>337279.4276469445</v>
-      </c>
-      <c r="I67" t="n">
-        <v>337279.4276469446</v>
-      </c>
-      <c r="J67" t="n">
-        <v>337279.4276469452</v>
-      </c>
-      <c r="K67" t="n">
-        <v>337279.4276469456</v>
-      </c>
-      <c r="L67" t="n">
-        <v>337279.4276469459</v>
-      </c>
-      <c r="M67" t="n">
-        <v>337279.4276469459</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2625236.466385805</v>
-      </c>
-      <c r="C68" t="n">
-        <v>2553794.474352696</v>
-      </c>
-      <c r="D68" t="n">
-        <v>2470379.697905165</v>
-      </c>
-      <c r="E68" t="n">
-        <v>2377689.501888171</v>
-      </c>
-      <c r="F68" t="n">
-        <v>2278294.43908679</v>
-      </c>
-      <c r="G68" t="n">
-        <v>2174547.624969694</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2068535.312237635</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1962056.516923449</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1856622.563861976</v>
-      </c>
-      <c r="K68" t="n">
-        <v>1753469.755243263</v>
-      </c>
-      <c r="L68" t="n">
-        <v>1653580.165797213</v>
-      </c>
-      <c r="M68" t="n">
-        <v>1557706.946830441</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>3081653.978354391</v>
-      </c>
-      <c r="C69" t="n">
-        <v>3054581.294577387</v>
-      </c>
-      <c r="D69" t="n">
-        <v>3014928.172586392</v>
-      </c>
-      <c r="E69" t="n">
-        <v>2964235.63389082</v>
-      </c>
-      <c r="F69" t="n">
-        <v>2904036.707924589</v>
-      </c>
-      <c r="G69" t="n">
-        <v>2835818.610882042</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2760996.214908883</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2680893.994314668</v>
-      </c>
-      <c r="J69" t="n">
-        <v>2596734.847786277</v>
-      </c>
-      <c r="K69" t="n">
-        <v>2509633.561597442</v>
-      </c>
-      <c r="L69" t="n">
-        <v>2420594.5528963</v>
-      </c>
-      <c r="M69" t="n">
-        <v>2330512.722168001</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>27694963.4194785</v>
-      </c>
-      <c r="C70" t="n">
-        <v>23528808.9484327</v>
-      </c>
-      <c r="D70" t="n">
-        <v>19044435.96952854</v>
-      </c>
-      <c r="E70" t="n">
-        <v>14987941.49611099</v>
-      </c>
-      <c r="F70" t="n">
-        <v>11673826.16784244</v>
-      </c>
-      <c r="G70" t="n">
-        <v>9142176.543761998</v>
-      </c>
-      <c r="H70" t="n">
-        <v>7298411.042209566</v>
-      </c>
-      <c r="I70" t="n">
-        <v>6002718.176026215</v>
-      </c>
-      <c r="J70" t="n">
-        <v>5117075.688469931</v>
-      </c>
-      <c r="K70" t="n">
-        <v>4524979.493296112</v>
-      </c>
-      <c r="L70" t="n">
-        <v>4136240.844280961</v>
-      </c>
-      <c r="M70" t="n">
-        <v>3884839.003392322</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>12292886.92194161</v>
-      </c>
-      <c r="C71" t="n">
-        <v>12292886.92194162</v>
-      </c>
-      <c r="D71" t="n">
-        <v>12292886.92194162</v>
-      </c>
-      <c r="E71" t="n">
-        <v>12292886.92194162</v>
-      </c>
-      <c r="F71" t="n">
-        <v>12292886.92194162</v>
-      </c>
-      <c r="G71" t="n">
-        <v>12292886.92194162</v>
-      </c>
-      <c r="H71" t="n">
-        <v>12292886.92194161</v>
-      </c>
-      <c r="I71" t="n">
-        <v>12292886.92194161</v>
-      </c>
-      <c r="J71" t="n">
-        <v>12292886.92194162</v>
-      </c>
-      <c r="K71" t="n">
-        <v>12292886.92194162</v>
-      </c>
-      <c r="L71" t="n">
-        <v>12292886.92194162</v>
-      </c>
-      <c r="M71" t="n">
-        <v>12292886.92194162</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>3181523.665337078</v>
-      </c>
-      <c r="C72" t="n">
-        <v>3181534.964801638</v>
-      </c>
-      <c r="D72" t="n">
-        <v>3181504.664261671</v>
-      </c>
-      <c r="E72" t="n">
-        <v>3181532.531176658</v>
-      </c>
-      <c r="F72" t="n">
-        <v>3181541.773590897</v>
-      </c>
-      <c r="G72" t="n">
-        <v>3181509.285659773</v>
-      </c>
-      <c r="H72" t="n">
-        <v>3181542.896569822</v>
-      </c>
-      <c r="I72" t="n">
-        <v>3181536.676736849</v>
-      </c>
-      <c r="J72" t="n">
-        <v>3181508.052041848</v>
-      </c>
-      <c r="K72" t="n">
-        <v>3181553.184320671</v>
-      </c>
-      <c r="L72" t="n">
-        <v>3181535.355263243</v>
-      </c>
-      <c r="M72" t="n">
-        <v>3181508.993883342</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>2868037.912135619</v>
-      </c>
-      <c r="C73" t="n">
-        <v>2868037.920400091</v>
-      </c>
-      <c r="D73" t="n">
-        <v>2868037.928593959</v>
-      </c>
-      <c r="E73" t="n">
-        <v>2868037.936717109</v>
-      </c>
-      <c r="F73" t="n">
-        <v>2868037.944769444</v>
-      </c>
-      <c r="G73" t="n">
-        <v>2868037.952750858</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2868037.96066124</v>
-      </c>
-      <c r="I73" t="n">
-        <v>2868037.968500502</v>
-      </c>
-      <c r="J73" t="n">
-        <v>2868037.976268535</v>
-      </c>
-      <c r="K73" t="n">
-        <v>2868037.98396524</v>
-      </c>
-      <c r="L73" t="n">
-        <v>2868037.991590515</v>
-      </c>
-      <c r="M73" t="n">
-        <v>2868037.999144264</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>18834731.90417781</v>
-      </c>
-      <c r="C74" t="n">
-        <v>17207819.80143044</v>
-      </c>
-      <c r="D74" t="n">
-        <v>16085365.19754905</v>
-      </c>
-      <c r="E74" t="n">
-        <v>15382660.1742213</v>
-      </c>
-      <c r="F74" t="n">
-        <v>14890873.81194091</v>
-      </c>
-      <c r="G74" t="n">
-        <v>14701271.44591141</v>
-      </c>
-      <c r="H74" t="n">
-        <v>14577894.925987</v>
-      </c>
-      <c r="I74" t="n">
-        <v>14554685.96405459</v>
-      </c>
-      <c r="J74" t="n">
-        <v>14413680.61735222</v>
-      </c>
-      <c r="K74" t="n">
-        <v>14486091.96027417</v>
-      </c>
-      <c r="L74" t="n">
-        <v>14446851.41389845</v>
-      </c>
-      <c r="M74" t="n">
-        <v>14422022.48233305</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>15730972.10125311</v>
-      </c>
-      <c r="C75" t="n">
-        <v>15730972.10125311</v>
-      </c>
-      <c r="D75" t="n">
-        <v>15730972.10125311</v>
-      </c>
-      <c r="E75" t="n">
-        <v>15730972.10125311</v>
-      </c>
-      <c r="F75" t="n">
-        <v>15730972.10125311</v>
-      </c>
-      <c r="G75" t="n">
-        <v>15730972.10125311</v>
-      </c>
-      <c r="H75" t="n">
-        <v>15730972.10125311</v>
-      </c>
-      <c r="I75" t="n">
-        <v>15730972.10125311</v>
-      </c>
-      <c r="J75" t="n">
-        <v>15730972.10125311</v>
-      </c>
-      <c r="K75" t="n">
-        <v>15730972.10125311</v>
-      </c>
-      <c r="L75" t="n">
-        <v>15730972.10125311</v>
-      </c>
-      <c r="M75" t="n">
-        <v>15730972.10125311</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>14138342.78249669</v>
-      </c>
-      <c r="C76" t="n">
-        <v>12093365.90904621</v>
-      </c>
-      <c r="D76" t="n">
-        <v>10001694.20991412</v>
-      </c>
-      <c r="E76" t="n">
-        <v>8041167.626109393</v>
-      </c>
-      <c r="F76" t="n">
-        <v>6314149.050347065</v>
-      </c>
-      <c r="G76" t="n">
-        <v>4860936.281126171</v>
-      </c>
-      <c r="H76" t="n">
-        <v>3680165.023637051</v>
-      </c>
-      <c r="I76" t="n">
-        <v>2746798.695654171</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2025173.936675357</v>
-      </c>
-      <c r="K76" t="n">
-        <v>1477328.361852535</v>
-      </c>
-      <c r="L76" t="n">
-        <v>1067698.998281968</v>
-      </c>
-      <c r="M76" t="n">
-        <v>765344.6409064119</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>4874177.194021612</v>
-      </c>
-      <c r="C77" t="n">
-        <v>4888562.149013132</v>
-      </c>
-      <c r="D77" t="n">
-        <v>4902929.673056915</v>
-      </c>
-      <c r="E77" t="n">
-        <v>4917279.498706564</v>
-      </c>
-      <c r="F77" t="n">
-        <v>4931611.360774636</v>
-      </c>
-      <c r="G77" t="n">
-        <v>4945924.996321127</v>
-      </c>
-      <c r="H77" t="n">
-        <v>4960220.144641042</v>
-      </c>
-      <c r="I77" t="n">
-        <v>4974496.54725273</v>
-      </c>
-      <c r="J77" t="n">
-        <v>4988753.947885588</v>
-      </c>
-      <c r="K77" t="n">
-        <v>5002992.092468441</v>
-      </c>
-      <c r="L77" t="n">
-        <v>5017210.729117513</v>
-      </c>
-      <c r="M77" t="n">
-        <v>5031409.608125046</v>
+        <v>3052576.787042421</v>
       </c>
     </row>
   </sheetData>
